--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H2">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>883.0529186076</v>
+        <v>210.2977749201129</v>
       </c>
       <c r="R2">
-        <v>7947.4762674684</v>
+        <v>1892.679974281016</v>
       </c>
       <c r="S2">
-        <v>0.007981051976556894</v>
+        <v>0.002269156941777437</v>
       </c>
       <c r="T2">
-        <v>0.007981051976556894</v>
+        <v>0.002269156941777437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H3">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>834.4011128160499</v>
+        <v>366.2697786740746</v>
       </c>
       <c r="R3">
-        <v>7509.61001534445</v>
+        <v>3296.428008066672</v>
       </c>
       <c r="S3">
-        <v>0.007541335870541443</v>
+        <v>0.003952127459062683</v>
       </c>
       <c r="T3">
-        <v>0.007541335870541444</v>
+        <v>0.003952127459062683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H4">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>978.6331050095167</v>
+        <v>452.4811338273102</v>
       </c>
       <c r="R4">
-        <v>8807.697945085651</v>
+        <v>4072.330204445792</v>
       </c>
       <c r="S4">
-        <v>0.00884490783335597</v>
+        <v>0.004882365998582745</v>
       </c>
       <c r="T4">
-        <v>0.008844907833355972</v>
+        <v>0.004882365998582745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>873.989883</v>
       </c>
       <c r="I5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>32778.52210333771</v>
+        <v>17783.24879246736</v>
       </c>
       <c r="R5">
-        <v>295006.6989300394</v>
+        <v>160049.2391322062</v>
       </c>
       <c r="S5">
-        <v>0.2962530139574873</v>
+        <v>0.1918849710136574</v>
       </c>
       <c r="T5">
-        <v>0.2962530139574873</v>
+        <v>0.1918849710136574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>873.989883</v>
       </c>
       <c r="I6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>30972.58923351582</v>
@@ -818,10 +818,10 @@
         <v>278753.3031016424</v>
       </c>
       <c r="S6">
-        <v>0.2799309523952563</v>
+        <v>0.334200710828975</v>
       </c>
       <c r="T6">
-        <v>0.2799309523952563</v>
+        <v>0.3342007108289751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>873.989883</v>
       </c>
       <c r="I7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>36326.41508528544</v>
+        <v>38262.81366888203</v>
       </c>
       <c r="R7">
-        <v>326937.735767569</v>
+        <v>344365.3230199383</v>
       </c>
       <c r="S7">
-        <v>0.328318949870858</v>
+        <v>0.4128637560795055</v>
       </c>
       <c r="T7">
-        <v>0.3283189498708581</v>
+        <v>0.4128637560795056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H8">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>2577.691336853856</v>
+        <v>945.9703802141597</v>
       </c>
       <c r="R8">
-        <v>23199.2220316847</v>
+        <v>8513.733421927438</v>
       </c>
       <c r="S8">
-        <v>0.02329723180281213</v>
+        <v>0.01020721810201856</v>
       </c>
       <c r="T8">
-        <v>0.02329723180281213</v>
+        <v>0.01020721810201856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H9">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>2435.673417351455</v>
+        <v>1647.570269941706</v>
       </c>
       <c r="R9">
-        <v>21921.06075616309</v>
+        <v>14828.13242947535</v>
       </c>
       <c r="S9">
-        <v>0.02201367067836857</v>
+        <v>0.01777762754039861</v>
       </c>
       <c r="T9">
-        <v>0.02201367067836857</v>
+        <v>0.01777762754039861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H10">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>2856.696380913485</v>
+        <v>2035.369848154382</v>
       </c>
       <c r="R10">
-        <v>25710.26742822137</v>
+        <v>18318.32863338944</v>
       </c>
       <c r="S10">
-        <v>0.02581888561476328</v>
+        <v>0.02196206603602197</v>
       </c>
       <c r="T10">
-        <v>0.02581888561476328</v>
+        <v>0.02196206603602197</v>
       </c>
     </row>
   </sheetData>
